--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D124BD-4D84-4695-9601-22C15AA867B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375A2C86-3E61-479F-885A-45D746726BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5C9571-38A0-4053-8DCF-1E3C02A4CE30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72025532-26EF-4762-B513-DD0D4F23495C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7627E048-D2DE-4271-96E6-CD0D7C0A9333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA447438-67DA-4805-BCE8-6AA7F2383A04}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D785322-6C5A-42F9-A870-0AFBDD9E5C76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59342740-6E78-4AD0-A6A5-D3C2FE1CB854}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375A2C86-3E61-479F-885A-45D746726BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD83E0C-3FDE-4C0D-B385-AF0A4FD24E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72025532-26EF-4762-B513-DD0D4F23495C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A86DD-03AA-45A3-88DC-065F61E531AB}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA447438-67DA-4805-BCE8-6AA7F2383A04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271CC6-F576-4348-85D9-7A02558989B9}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59342740-6E78-4AD0-A6A5-D3C2FE1CB854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786DB40F-8909-4333-87D1-8DEE56330BF4}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
